--- a/2_BOM/BOM.xlsx
+++ b/2_BOM/BOM.xlsx
@@ -579,11 +579,40 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="ID_09360DC4601A4C6B888F223D5A336423"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7124700" y="43954700"/>
+          <a:ext cx="4181475" cy="4219575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>序号</t>
   </si>
@@ -710,6 +739,18 @@
   <si>
     <t xml:space="preserve">
 M2*14(20套)</t>
+  </si>
+  <si>
+    <t>扭簧</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=774983364150&amp;mi_id=0000QurGtSez1jTZ5p6uKj8WHU7bHYUpDv2evHdkZUWnVCU&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.52462e8ddWeaR8</t>
+  </si>
+  <si>
+    <t>线经1.2毫米（10个） 备注：线径*外径*圈数*角度*左右</t>
+  </si>
+  <si>
+    <t>备注：线径1.2 外径7.5 圈数5 角度180 一包左旋一包右旋</t>
   </si>
   <si>
     <t>螺丝：</t>
@@ -746,7 +787,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,6 +831,13 @@
       <u/>
       <sz val="28"/>
       <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="28"/>
+      <color rgb="FF800080"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
     </font>
@@ -1140,7 +1188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1158,19 +1206,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1294,137 +1329,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1450,22 +1485,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2007,10 +2039,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="35.25" outlineLevelCol="6"/>
@@ -2379,7 +2411,7 @@
         <f>_xlfn.DISPIMG("ID_00C90E8FDB5A48B48A59E2B696220C7E",1)</f>
         <v>=DISPIMG("ID_00C90E8FDB5A48B48A59E2B696220C7E",1)</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -2394,17 +2426,17 @@
       <c r="B20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="10">
         <v>6</v>
       </c>
-      <c r="D20" s="9" t="str">
+      <c r="D20" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_E35C70DA79CA42FBAC47AA37779D90FD",1)</f>
         <v>=DISPIMG("ID_E35C70DA79CA42FBAC47AA37779D90FD",1)</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
         <v>37</v>
       </c>
       <c r="G20" s="4"/>
@@ -2414,12 +2446,12 @@
         <v>20</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="9">
+      <c r="C21" s="10">
         <v>2</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="4"/>
@@ -2431,14 +2463,14 @@
       <c r="B22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="10">
         <v>4</v>
       </c>
-      <c r="D22" s="9" t="str">
+      <c r="D22" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_5FBD058D9371446E9344BDD86CF29D48",1)</f>
         <v>=DISPIMG("ID_5FBD058D9371446E9344BDD86CF29D48",1)</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F22" s="12" t="s">
@@ -2447,359 +2479,382 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" ht="160" customHeight="1" spans="1:7">
-      <c r="A23" s="13">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
+      <c r="B23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2</v>
+      </c>
+      <c r="D23" s="10" t="str">
+        <f>_xlfn.DISPIMG("ID_09360DC4601A4C6B888F223D5A336423",1)</f>
+        <v>=DISPIMG("ID_09360DC4601A4C6B888F223D5A336423",1)</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="24" ht="160" customHeight="1" spans="1:7">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" ht="160" customHeight="1" spans="1:7">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" ht="160" customHeight="1" spans="1:7">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" ht="80" customHeight="1" spans="1:7">
+        <v>47</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" ht="160" customHeight="1" spans="1:7">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
+        <v>48</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" ht="80" customHeight="1" spans="1:7">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
+        <v>49</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" ht="80" customHeight="1" spans="1:7">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
+        <v>50</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" ht="80" customHeight="1" spans="1:7">
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
+      <c r="B30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" ht="80" customHeight="1" spans="1:7">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" ht="80" customHeight="1" spans="1:7">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
+        <v>52</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" ht="80" customHeight="1" spans="1:7">
-      <c r="A33" s="16"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" ht="80" customHeight="1" spans="1:7">
-      <c r="A34" s="16"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" ht="80" customHeight="1" spans="1:7">
-      <c r="A35" s="16"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
     </row>
     <row r="36" ht="80" customHeight="1" spans="1:7">
-      <c r="A36" s="16"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" ht="80" customHeight="1" spans="1:7">
-      <c r="A37" s="16"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
     </row>
     <row r="38" ht="80" customHeight="1" spans="1:7">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" ht="80" customHeight="1" spans="1:7">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="18"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
     </row>
     <row r="40" ht="80" customHeight="1" spans="1:7">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="18"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" ht="80" customHeight="1" spans="1:7">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="18"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" ht="80" customHeight="1" spans="1:7">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" ht="80" customHeight="1" spans="1:7">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="17"/>
     </row>
     <row r="44" ht="80" customHeight="1" spans="1:7">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" ht="80" customHeight="1" spans="1:7">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="17"/>
     </row>
     <row r="46" ht="80" customHeight="1" spans="1:7">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="18"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17"/>
     </row>
     <row r="47" ht="80" customHeight="1" spans="1:7">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="18"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17"/>
     </row>
     <row r="48" ht="80" customHeight="1" spans="1:7">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="18"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="17"/>
     </row>
     <row r="49" ht="80" customHeight="1" spans="1:7">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="17"/>
     </row>
     <row r="50" ht="80" customHeight="1" spans="1:7">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" ht="80" customHeight="1" spans="1:7">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="17"/>
     </row>
     <row r="52" ht="80" customHeight="1" spans="1:7">
-      <c r="A52" s="16"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="17"/>
     </row>
     <row r="53" ht="80" customHeight="1" spans="1:7">
-      <c r="A53" s="16"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="18"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" ht="80" customHeight="1" spans="1:7">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="18"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="17"/>
     </row>
     <row r="55" ht="80" customHeight="1" spans="1:7">
-      <c r="A55" s="16"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="17"/>
     </row>
     <row r="56" ht="80" customHeight="1" spans="1:7">
-      <c r="A56" s="16"/>
+      <c r="A56" s="15"/>
     </row>
     <row r="57" ht="80" customHeight="1" spans="1:7">
-      <c r="A57" s="16"/>
+      <c r="A57" s="15"/>
     </row>
     <row r="58" ht="80" customHeight="1" spans="1:7">
-      <c r="A58" s="17"/>
+      <c r="A58" s="15"/>
     </row>
     <row r="59" ht="80" customHeight="1" spans="1:7">
-      <c r="A59" s="17"/>
+      <c r="A59" s="16"/>
     </row>
     <row r="60" ht="80" customHeight="1" spans="1:7">
-      <c r="A60" s="17"/>
+      <c r="A60" s="16"/>
     </row>
     <row r="61" ht="80" customHeight="1" spans="1:7">
-      <c r="A61" s="17"/>
+      <c r="A61" s="16"/>
     </row>
     <row r="62" ht="80" customHeight="1" spans="1:7">
-      <c r="A62" s="17"/>
+      <c r="A62" s="16"/>
     </row>
     <row r="63" ht="80" customHeight="1" spans="1:7">
-      <c r="A63" s="17"/>
+      <c r="A63" s="16"/>
     </row>
     <row r="64" ht="80" customHeight="1" spans="1:7">
-      <c r="A64" s="17"/>
-    </row>
-    <row r="65" ht="80" customHeight="1"/>
+      <c r="A64" s="16"/>
+    </row>
+    <row r="65" ht="80" customHeight="1" spans="1:1">
+      <c r="A65" s="16"/>
+    </row>
     <row r="66" ht="80" customHeight="1"/>
     <row r="67" ht="80" customHeight="1"/>
     <row r="68" ht="80" customHeight="1"/>
@@ -2809,11 +2864,12 @@
     <row r="72" ht="80" customHeight="1"/>
     <row r="73" ht="80" customHeight="1"/>
     <row r="74" ht="80" customHeight="1"/>
+    <row r="75" ht="80" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B38"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E4:E13"/>
     <mergeCell ref="E14:E15"/>
@@ -2826,6 +2882,7 @@
     <hyperlink ref="E19" r:id="rId2" display="https://detail.tmall.com/item.htm?id=735576032715&amp;mi_id=0000OGGEBBFsIr1vGy8mVBt6lo0X8TZPIWRm7th_iAbPrA0&amp;spm=tbpc.boughtlist.suborder_itempic.d735576032715.48d42e8dU9k4ol"/>
     <hyperlink ref="E20" r:id="rId3" display="https://detail.tmall.com/item.htm?abbucket=17&amp;id=617648776883&amp;mi_id=0000AixOaiNSOrtIWDH9x66lFwgUiEG3hmFisk50--r1ybs&amp;ns=1&amp;priceTId=213e0a8117683168778656112e1afd&amp;skuId=5533509412784&amp;spm=a21n57.1.hoverItem.3&amp;utparam=%7B%22aplus_abtest%22%3A%22c97186f7272e16d4a5c0aed76192a629%22%7D&amp;xxc=taobaoSearch"/>
     <hyperlink ref="E22" r:id="rId4" display="https://detail.tmall.com/item.htm?id=738916254976&amp;mi_id=0000W-kaU7y8RE2Bm54ZD5BTsgKxBGYhC_TidEMEX_1yzKg&amp;spm=tbpc.boughtlist.suborder_itempic.d738916254976.48d42e8dU9k4ol"/>
+    <hyperlink ref="E23" r:id="rId5" display="https://detail.tmall.com/item.htm?id=774983364150&amp;mi_id=0000QurGtSez1jTZ5p6uKj8WHU7bHYUpDv2evHdkZUWnVCU&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.52462e8ddWeaR8"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
